--- a/melhores cotacoes.xlsx
+++ b/melhores cotacoes.xlsx
@@ -575,20 +575,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Simento</t>
+          <t>Elecronic Direct</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.096</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -686,20 +686,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ariat</t>
+          <t>Simento</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.72</v>
+        <v>0.18</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>720</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8">
@@ -723,20 +723,20 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ariat</t>
+          <t>Simento</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -797,20 +797,20 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Elecronic Direct</t>
+          <t>Simento</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.035</v>
+        <v>0.0098</v>
       </c>
       <c r="G10" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>140</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="11">

--- a/melhores cotacoes.xlsx
+++ b/melhores cotacoes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>Total_preço</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Qt a encomendar</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -516,21 +521,24 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OBTBT0001C</t>
+          <t>OCEAP0002S</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Batería de Lítio CR2032 de 3,3V 220mAh Terminais Soldad</t>
+          <t>COMP. DUAL            TSSOP8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CR2032/1GU                    </t>
+          <t xml:space="preserve">LM2903PW                      </t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -538,36 +546,39 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>Ariat</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.37</v>
+        <v>0.116</v>
       </c>
       <c r="G3" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>203.5</v>
+        <v>58</v>
+      </c>
+      <c r="J3" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OCEAP0002S</t>
+          <t>OCEAP0003S</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>COMP. DUAL            TSSOP8</t>
+          <t>AMP. QUAD             TSSOP14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LM2903PW                      </t>
+          <t xml:space="preserve">LM324PW                       </t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -575,36 +586,39 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Elecronic Direct</t>
+          <t>Ariat</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.139</v>
       </c>
       <c r="G4" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>69.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OCEAP0003S</t>
+          <t>OCEAP0004S</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AMP. QUAD             TSSOP14</t>
+          <t>AMP. SINGLE          DFN     LT6000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">LM324PW                       </t>
+          <t xml:space="preserve">LT6000IDCB#TRMPBF             </t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -612,73 +626,79 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Simento</t>
+          <t>Ariat</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.098</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
         <v>500</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>49</v>
+        <v>850</v>
+      </c>
+      <c r="J5" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OCEAP0004S</t>
+          <t>OCEBB0006S</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AMP. SINGLE          DFN     LT6000</t>
+          <t>BOBINE, 22uH, 20%, 7.57A, DR127</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">LT6000IDCB#TRMPBF             </t>
+          <t xml:space="preserve">DR127-220-R                   </t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Simento</t>
+          <t>Ariat</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.18</v>
+        <v>0.72</v>
       </c>
       <c r="G6" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>590</v>
+        <v>720</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OCEBB0006S</t>
+          <t>OCEBB0008S</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOBINE, 22uH, 20%, 7.57A, DR127</t>
+          <t>BOBINE, 2.2uH, 20%, 1.35A, (5.2 x 5.2 x 1.0mm)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">DR127-220-R                   </t>
+          <t xml:space="preserve">SD10-2R2-R                    </t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -686,85 +706,91 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Simento</t>
+          <t>Ariat</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="G7" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OCEBB0008S</t>
+          <t>OCEBB0010S</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOBINE, 2.2uH, 20%, 1.35A, (5.2 x 5.2 x 1.0mm)</t>
+          <t>FERRITE, 0.15R,  1A, 0603</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">SD10-2R2-R                    </t>
+          <t xml:space="preserve">MPZ1608D101B                  </t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Simento</t>
+          <t>Ariat</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.12</v>
+        <v>0.023</v>
       </c>
       <c r="G8" t="n">
         <v>500</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>120</v>
+        <v>11.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OCEBB0010S</t>
+          <t>OCEBB0014S</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FERRITE, 0.15R,  1A, 0603</t>
+          <t>FERRITE, 0.1R,  1.5A, 0805</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">MPZ1608D101B                  </t>
+          <t xml:space="preserve">MI0805k110R-10                </t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ariat</t>
+          <t>Simento</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.023</v>
+        <v>0.0098</v>
       </c>
       <c r="G9" t="n">
         <v>500</v>
@@ -773,81 +799,10 @@
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>OCEBB0014S</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>FERRITE, 0.1R,  1.5A, 0805</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MI0805k110R-10                </t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J9" t="n">
         <v>4000</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Simento</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0098</v>
-      </c>
-      <c r="G10" t="n">
-        <v>500</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>39.2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>OCEBB0015S</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Bobine, Modo Comum, 1mH, 30%,  0.8A, 9.2x6x5mm</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SRF0905A-102Y                 </t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>500</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Elecronic Direct</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G11" t="n">
-        <v>500</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
